--- a/fuentes/contenidos/grado09/guion06/SolicitudGrafica_MA_09_06_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion06/SolicitudGrafica_MA_09_06_CO.xlsx
@@ -5,12 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aulaplaneta\Edicion Recursos\MA_09_06\MA_09_06_CO\Formulas_MA_09_06_CO. Se carga en el github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18480" windowHeight="7755" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="223">
   <si>
     <t>Fecha:</t>
   </si>
@@ -590,94 +589,325 @@
     <t>Trabajar un video</t>
   </si>
   <si>
-    <t>La función cuadratica</t>
-  </si>
-  <si>
-    <t>Cristhian Bello Rivera</t>
+    <t>Función cuadrática</t>
+  </si>
+  <si>
+    <t>Ilustración</t>
+  </si>
+  <si>
+    <t>MA_09_06_REC20</t>
   </si>
   <si>
     <t>Cuaderno de Estudio</t>
   </si>
   <si>
-    <t>MA_09_06_CO</t>
-  </si>
-  <si>
-    <t>Ilustración</t>
+    <t>Ver descripción</t>
   </si>
   <si>
     <t>Fotografía</t>
   </si>
   <si>
-    <t>Arcoiris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver descripcion </t>
-  </si>
-  <si>
-    <t>Gráfica de la función f(x) = x^2; se deben resaltar los puntos que se muestran en la grafica (0,0), (1,1), (-1,1), (2,4), (-2,4), (3,9) y (-3,9)</t>
-  </si>
-  <si>
-    <t>Grafica de la función f(x) = x2 + 2x ; con los puntos (0,0),(1,3), (-1,1), (2,8), (-2,0)y (-3,3)</t>
-  </si>
-  <si>
-    <t>Puente con bases parabolicas</t>
-  </si>
-  <si>
-    <t>Partes de la parabola, foco, directriz, eje de simetria y vertice</t>
-  </si>
-  <si>
-    <t>Grafica de la parábola y = 2x^2 + 8x + 1; con los puntos que se señalan en la imagen.</t>
-  </si>
-  <si>
-    <t>la gráfica de y = 3x^2 ; con el punto del vertice</t>
-  </si>
-  <si>
-    <t>la gráfica de la función y = -3x^2; con el punto del vertice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">la función y = 2x^2 + 3, resaltar  el vértice (0, 3) </t>
-  </si>
-  <si>
-    <t>la función y = -2x^2 + 1, resaltar el vértice (0, 1)</t>
-  </si>
-  <si>
-    <t>Grafica de y = 4x^2 + 2x; en un recuadro de la imagen escrbir la formula que aparece. No olviar resaltar el vertice</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> la función y= -2x^2 + 12x + 1, resaltar el vértice  (3, 19) </t>
-  </si>
-  <si>
-    <t>Mostrar que la función f(x) = x2 se traslada 2 unidades hacia arriba y se obtiene la función g(x) = x^2 + 2. Además se traslada 3 unidades hacia abajo y se obtiene la función h(x) = x^2 – 3, puede ser con flechas como se muestra en la figura</t>
-  </si>
-  <si>
-    <t>Mostrar que al trasladar la función y = x^2, 3 unidades a la izquierda se obtiene la función y = (x + 3)^2; si se traslada 5 unidades a la derecha se obtiene la función y = (x – 5)^2; puede ser con flechas de diferente color.</t>
-  </si>
-  <si>
-    <t>Mostrar que La función  y = x^2 se traslada 2 unidades hacia la izquierda y 3 unidades hacia abajo y se obtiene la función y = (x + 3)^2 – 2</t>
-  </si>
-  <si>
-    <t>la  gráfica de la función f(x)= 2x2 + 4x, se muestra que   sus ceros son  x_1 = -2 y x_2 = 0.</t>
-  </si>
-  <si>
-    <t>la gráfica de la función f(x)= 2x^2 – 12x + 18 se observa que  x_1 = 3 y el punto (3, 0) es el vértice de la parábola</t>
-  </si>
-  <si>
-    <t>La gráfica de la función y = 2x^2 – 4x + 4</t>
-  </si>
-  <si>
-    <t>Lanzamiento de jabalina</t>
-  </si>
-  <si>
-    <t>la figura rosada es un cuadrado</t>
-  </si>
-  <si>
-    <t>baloncesto</t>
-  </si>
-  <si>
-    <t>grafica de las funciones y = raizcuadrada(41-x^2) ; y = 9 - x, donde se realten los puntos de corte (4,5) y  (5, 4)</t>
-  </si>
-  <si>
-    <t>Darle a la parte verde textura de cultivo, y al borde mostrarlo cercado.</t>
+    <t>Esta en git hub pero parece hecha con trazos a mano. Por favor enviar para revisar.</t>
+  </si>
+  <si>
+    <t>Arco iris</t>
+  </si>
+  <si>
+    <t>Ya está en git hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gráfica de la función f(x) = x2 + 2x. 
+(Nueva) </t>
+  </si>
+  <si>
+    <t>Esta en git hub nombrada como MA_09_06_REC20_O6. Ajustar el tamaño para ubicarla en cuaderno de estudio</t>
+  </si>
+  <si>
+    <t>Puentes en forma de parábola</t>
+  </si>
+  <si>
+    <t>No hay imagen con ese código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gráfica de la función f(x) = 2x2 + 8x + 1.  (Nueva) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">función </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">y = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 1 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">y = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <t>Esta en git hub. Los números deben verse rectos</t>
+  </si>
+  <si>
+    <t>Revisar. Números rectos</t>
+  </si>
+  <si>
+    <t>Esta en git hub pero parece hecha con trazos a mano. Por favor enviar para revisar. No está imagen zoom en git hub. Números rectos</t>
+  </si>
+  <si>
+    <t>Fotografía lanza</t>
+  </si>
+  <si>
+    <t>Esta en git hub</t>
+  </si>
+  <si>
+    <t>Rectángulos</t>
+  </si>
+  <si>
+    <t>Está en git hub</t>
+  </si>
+  <si>
+    <t>Fotografía baloncesto</t>
+  </si>
+  <si>
+    <t>Shutterstock 114785188</t>
+  </si>
+  <si>
+    <t>Está en git hub. Colocar cotas</t>
+  </si>
+  <si>
+    <t>Está en git hub. Hacer ajustes indicados.</t>
+  </si>
+  <si>
+    <t>Plataforma Aula España. 4° ESO. Las funciones lineales y cuadráticas/Las funciones cuadráticas/Imagen 3</t>
+  </si>
+  <si>
+    <r>
+      <t>Gráfica de la función f(x) = –5/6</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 3. </t>
+    </r>
+  </si>
+  <si>
+    <t>Representar la función indicada siguiendolos parámetros establecidos en plano cartesiano, colores, fuentes, etc.</t>
+  </si>
+  <si>
+    <t>Plataforma Aula España. 4° ESO. Las funciones lineales y cuadráticas/Las funciones cuadráticas/Imagen 4</t>
+  </si>
+  <si>
+    <t>Plataforma Aula España. 4° ESO. Las funciones lineales y cuadráticas/Las funciones cuadráticas/Imagen 5</t>
+  </si>
+  <si>
+    <t>Plataforma Aula España. 4° ESO. Las funciones lineales y cuadráticas/Las funciones cuadráticas/Imagen 6</t>
+  </si>
+  <si>
+    <t>Plataforma Aula España. 4° ESO. Las funciones lineales y cuadráticas/Las funciones cuadráticas/Imagen 7</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gráfica de la función </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> = – </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> + 4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> + 5</t>
+    </r>
+  </si>
+  <si>
+    <t>Formar una sola imagen con MA_09_06_07 Y MA_09_06_08. Revisar que queden con el mismo estilo. Si es necesario encragarla nuevamente.</t>
   </si>
 </sst>
 </file>
@@ -687,7 +917,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -732,18 +962,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -847,6 +1065,54 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1396,7 +1662,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1448,8 +1714,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1467,7 +1733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1488,44 +1754,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1546,19 +1812,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1577,46 +1843,23 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1625,15 +1868,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1666,22 +1909,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1711,12 +1954,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1843,23 +2089,61 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>555625</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>95252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2209800</xdr:colOff>
+      <xdr:colOff>1947090</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>828675</xdr:rowOff>
+      <xdr:rowOff>1429039</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1" descr="I:\planeta\guion 6\imagenes\1.JPG"/>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14271625" y="4040190"/>
+          <a:ext cx="1391465" cy="1333787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2190750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1270000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="I:\planeta\guion 6\imagenes\2.JPG"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1867,8 +2151,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13973175" y="2476500"/>
-          <a:ext cx="1943100" cy="657225"/>
+          <a:off x="13922375" y="5595938"/>
+          <a:ext cx="1984375" cy="1150937"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1887,111 +2171,23 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>182562</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>111127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2209800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>838200</xdr:rowOff>
+      <xdr:colOff>2562542</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1476377</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2" descr="I:\planeta\guion 6\imagenes\2.JPG"/>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\visuales\grado09\guion06\materialGrafico\MA_09_06_CO_REC20_IMG06a.jpg"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14030325" y="3371850"/>
-          <a:ext cx="1885950" cy="838200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1819275</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1276349</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/c/cb/Partes_de_una_par%C3%A1bola.svg/400px-Partes_de_una_par%C3%A1bola.svg.png"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14097000" y="5838824"/>
-          <a:ext cx="1428750" cy="1152525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2352675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1371600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4" descr="J:\planeta\guion 6\imagenes\3.jpg"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2005,8 +2201,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13916025" y="7391400"/>
-          <a:ext cx="2143125" cy="1047750"/>
+          <a:off x="13898562" y="11080752"/>
+          <a:ext cx="2379980" cy="1365250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2022,23 +2218,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2047240</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1133475</xdr:rowOff>
+      <xdr:colOff>2365375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1476374</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5" descr="I:\planeta\guion 6\imagenes\6.JPG"/>
+        <xdr:cNvPr id="5" name="Imagen 4" descr="J:\planeta\guion 6\imagenes\3.jpg"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2046,18 +2248,15 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14116050" y="9010650"/>
-          <a:ext cx="1637665" cy="838200"/>
+          <a:off x="13795375" y="7366001"/>
+          <a:ext cx="2286000" cy="1357311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525">
+        <a:ln>
           <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
@@ -2066,43 +2265,37 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>301624</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>49657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2532380</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1379220</xdr:rowOff>
+      <xdr:colOff>2135187</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1820983</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6" descr="I:\planeta\guion 6\imagenes\7.JPG"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="13887450" y="10601325"/>
-          <a:ext cx="2351405" cy="1188720"/>
+          <a:off x="14017624" y="9360345"/>
+          <a:ext cx="1833563" cy="1771326"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2110,75 +2303,31 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:colOff>198437</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>39686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2324100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1460500</xdr:rowOff>
+      <xdr:colOff>2492375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1365250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7" descr="I:\planeta\guion 6\imagenes\8.JPG"/>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13896975" y="12125325"/>
-          <a:ext cx="2133600" cy="1174750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2152650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1187450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 8"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14039850" y="14049375"/>
-          <a:ext cx="1819275" cy="920750"/>
+          <a:off x="13914437" y="11263311"/>
+          <a:ext cx="2293938" cy="1325564"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2192,22 +2341,22 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>452438</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>91964</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>2262536</xdr:colOff>
+          <xdr:colOff>2111376</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>1495425</xdr:rowOff>
+          <xdr:rowOff>1389061</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2055" name="Object 7" hidden="1">
+            <xdr:cNvPr id="2050" name="Object 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2055"/>
+                  <a14:compatExt spid="_x0000_s2050"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2241,240 +2390,37 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>271902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2334895</xdr:colOff>
+      <xdr:colOff>2158999</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>1193800</xdr:rowOff>
+      <xdr:rowOff>1897683</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagen 10" descr="I:\planeta\guion 6\imagenes\11.JPG"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="13849350" y="17449800"/>
-          <a:ext cx="2192020" cy="1108075"/>
+          <a:off x="14192250" y="14424465"/>
+          <a:ext cx="1682749" cy="1625781"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>781050</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>1790700</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>1314450</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2058" name="Object 10" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2058"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>304800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>2076450</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>1104900</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2059" name="Object 11" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2059"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>2238375</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>1298286</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2060" name="Object 12" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2060"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2111375</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1231900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Imagen 14" descr="I:\planeta\guion 6\imagenes\12.JPG"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14135100" y="23545800"/>
-          <a:ext cx="1682750" cy="850900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2482,43 +2428,37 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
+      <xdr:colOff>277813</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2137410</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1266825</xdr:rowOff>
+      <xdr:colOff>1899954</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1729933</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagen 15" descr="I:\planeta\guion 6\imagenes\13.JPG"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="14144625" y="25117425"/>
-          <a:ext cx="1699260" cy="857250"/>
+          <a:off x="13993813" y="16898937"/>
+          <a:ext cx="1622141" cy="1571184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2526,43 +2466,37 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
+      <xdr:colOff>230188</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2117725</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1298575</xdr:rowOff>
+      <xdr:colOff>1978262</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1865312</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Imagen 16" descr="I:\planeta\guion 6\imagenes\14.JPG"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="14077950" y="26927175"/>
-          <a:ext cx="1746250" cy="889000"/>
+          <a:off x="13946188" y="18907124"/>
+          <a:ext cx="1748074" cy="1706563"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2570,46 +2504,37 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2324100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>989964</xdr:rowOff>
+      <xdr:colOff>2063751</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1642620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Imagen 17" descr="J:\planeta\guion 6\imagenes\15.jpg"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="13792200" y="28413074"/>
-          <a:ext cx="2238375" cy="875665"/>
+          <a:off x="14120812" y="20978075"/>
+          <a:ext cx="1658939" cy="1619545"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2617,19 +2542,138 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:colOff>47623</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>466725</xdr:rowOff>
+      <xdr:rowOff>214311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2078990</xdr:colOff>
+      <xdr:colOff>2532062</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1166495</xdr:rowOff>
+      <xdr:rowOff>1254124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Imagen 18" descr="F:\16.jpg"/>
+        <xdr:cNvPr id="17" name="Imagen 16"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:srcRect l="12275" t="25623" r="20677" b="32358"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13763623" y="23463249"/>
+          <a:ext cx="2484439" cy="1039813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2159000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1203850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14033500" y="24851303"/>
+          <a:ext cx="1841500" cy="1069922"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15876</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>102917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2597908</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1389062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13731876" y="26169667"/>
+          <a:ext cx="2582032" cy="1286145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>230188</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>126997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2413001</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1690686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19" descr="http://profesores.aulaplaneta.com/DNNPlayerPackages/Package14640/InfoGuion/cuadernoestudio/images_xml/MT_10_07_img3_small.jpg"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2647,8 +2691,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14144625" y="29956125"/>
-          <a:ext cx="1640840" cy="699770"/>
+          <a:off x="13946188" y="29694185"/>
+          <a:ext cx="2182813" cy="1563689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2664,23 +2708,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>174626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2085975</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1104900</xdr:rowOff>
+      <xdr:colOff>2365375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1849438</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Imagen 19" descr="J:\planeta\guion 6\imagenes\16.jpg"/>
+        <xdr:cNvPr id="21" name="Imagen 20" descr="http://profesores.aulaplaneta.com/DNNPlayerPackages/Package14640/InfoGuion/cuadernoestudio/images_xml/MT_10_07_img5_small.jpg">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2694,8 +2740,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14468475" y="31242000"/>
-          <a:ext cx="1323975" cy="914400"/>
+          <a:off x="13787438" y="32051626"/>
+          <a:ext cx="2293937" cy="1674812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2708,57 +2754,191 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>2038350</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>1047750</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2064" name="Object 16" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2064"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2516187</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1579564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagen 21" descr="http://profesores.aulaplaneta.com/DNNPlayerPackages/Package14640/InfoGuion/cuadernoestudio/images_xml/MT_10_07_img6_small.jpg">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13779500" y="33924875"/>
+          <a:ext cx="2452687" cy="1547814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>134938</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>222249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2381251</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1666874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagen 22" descr="http://profesores.aulaplaneta.com/DNNPlayerPackages/Package14640/InfoGuion/cuadernoestudio/images_xml/MT_10_07_img7_small.jpg">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13850938" y="35782249"/>
+          <a:ext cx="2246313" cy="1444625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>39689</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2571751</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagen 23" descr="http://profesores.aulaplaneta.com/DNNPlayerPackages/Package14640/InfoGuion/cuadernoestudio/images_xml/MT_10_07_img8_small.jpg">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13755689" y="37536439"/>
+          <a:ext cx="2532062" cy="1706562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>112729</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>237206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2516188</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1214437</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13828729" y="39996144"/>
+          <a:ext cx="2403459" cy="977231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3477,9 +3657,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3494,7 +3674,7 @@
     <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="38.25" style="15" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="10.875" style="2" hidden="1" customWidth="1"/>
@@ -3517,7 +3697,7 @@
       </c>
       <c r="M1" s="2" t="str">
         <f>CONCATENATE('Definición técnica de imagenes'!$B$1," ",$G$5)</f>
-        <v xml:space="preserve">Ubicación de la imagen en el recurso </v>
+        <v>Ubicación de la imagen en el recurso F6B</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3525,14 +3705,14 @@
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="F2" s="78" t="s">
+      <c r="D2" s="80"/>
+      <c r="F2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="79"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
@@ -3541,7 +3721,7 @@
       </c>
       <c r="M2" s="2" t="str">
         <f ca="1">IF($N2&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N2,1,1,1),"")</f>
-        <v/>
+        <v>Contenido</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -3556,14 +3736,12 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="81">
         <v>9</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="F3" s="80">
-        <v>42348</v>
-      </c>
-      <c r="G3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
@@ -3587,16 +3765,16 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H4" s="58"/>
       <c r="I4" s="38"/>
@@ -3619,16 +3797,16 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="89" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="90"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v/>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="61" t="s">
+        <v>134</v>
+      </c>
       <c r="H5" s="58"/>
       <c r="I5" s="58"/>
       <c r="J5" s="14"/>
@@ -3674,8 +3852,8 @@
       <c r="B7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="74" t="s">
-        <v>190</v>
+      <c r="C7" s="68" t="s">
+        <v>189</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -3704,12 +3882,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -3765,13 +3943,13 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="62">
-        <v>137729087</v>
+      <c r="B10" s="62" t="s">
+        <v>191</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -3781,11 +3959,11 @@
         <v>192</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_09_06_CO_IMG01_small</v>
+        <v>MA_09_06_REC20_IMG01_small</v>
       </c>
       <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3793,42 +3971,44 @@
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" ref="H10" ca="1" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MA_09_06_CO_IMG01_zoom</v>
+        <v>MA_09_06_REC20_IMG01_zoom</v>
       </c>
       <c r="I10" s="13" t="str">
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J10" s="63"/>
+      <c r="J10" s="63" t="s">
+        <v>194</v>
+      </c>
       <c r="K10" s="64" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
         <v>M12D</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_09_06_CO_IMG02_small</v>
+        <v>MA_09_06_REC20_IMG02_small</v>
       </c>
       <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3836,42 +4016,42 @@
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MA_09_06_CO_IMG02_zoom</v>
+        <v>MA_09_06_REC20_IMG02_zoom</v>
       </c>
       <c r="I11" s="13" t="str">
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65" t="s">
-        <v>195</v>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64" t="s">
+        <v>193</v>
       </c>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG03_small</v>
+        <v>MA_09_06_REC20_IMG03_small</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3879,13 +4059,13 @@
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG03_zoom</v>
+        <v>MA_09_06_REC20_IMG03_zoom</v>
       </c>
       <c r="I12" s="13" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="64"/>
+      <c r="J12" s="63"/>
       <c r="K12" s="64" t="s">
         <v>196</v>
       </c>
@@ -3894,13 +4074,13 @@
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="62">
-        <v>218553973</v>
+      <c r="B13" s="62" t="s">
+        <v>191</v>
       </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3910,11 +4090,11 @@
         <v>192</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F13" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG04_small</v>
+        <v>MA_09_06_REC20_IMG04_small</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3922,42 +4102,44 @@
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG04_zoom</v>
+        <v>MA_09_06_REC20_IMG04_zoom</v>
       </c>
       <c r="I13" s="13" t="str">
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J13" s="64"/>
+      <c r="J13" s="63" t="s">
+        <v>198</v>
+      </c>
       <c r="K13" s="64" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F14" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG05_small</v>
+        <v>MA_09_06_REC20_IMG05_small</v>
       </c>
       <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3965,42 +4147,42 @@
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG05_zoom</v>
+        <v>MA_09_06_REC20_IMG05_zoom</v>
       </c>
       <c r="I14" s="13" t="str">
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64" t="s">
-        <v>198</v>
-      </c>
+      <c r="J14" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F15" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG06_small</v>
+        <v>MA_09_06_REC20_IMG06_small</v>
       </c>
       <c r="G15" s="13" t="str">
         <f ca="1">IF($F15&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4008,42 +4190,42 @@
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG06_zoom</v>
+        <v>MA_09_06_REC20_IMG06_zoom</v>
       </c>
       <c r="I15" s="13" t="str">
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66" t="s">
-        <v>199</v>
+      <c r="J15" s="63"/>
+      <c r="K15" s="64" t="s">
+        <v>200</v>
       </c>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E16" s="63" t="s">
         <v>153</v>
       </c>
       <c r="F16" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG07_small</v>
+        <v>MA_09_06_REC20_IMG07_small</v>
       </c>
       <c r="G16" s="13" t="str">
         <f ca="1">IF($F16&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4051,42 +4233,42 @@
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG07_zoom</v>
+        <v>MA_09_06_REC20_IMG07_zoom</v>
       </c>
       <c r="I16" s="13" t="str">
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="67"/>
-      <c r="K16" s="68" t="s">
-        <v>200</v>
-      </c>
+      <c r="J16" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="K16" s="64"/>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG08</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E17" s="63" t="s">
         <v>153</v>
       </c>
       <c r="F17" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG08_small</v>
+        <v>MA_09_06_REC20_IMG08_small</v>
       </c>
       <c r="G17" s="13" t="str">
         <f ca="1">IF($F17&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4094,42 +4276,42 @@
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG08_zoom</v>
+        <v>MA_09_06_REC20_IMG08_zoom</v>
       </c>
       <c r="I17" s="13" t="str">
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66" t="s">
-        <v>201</v>
-      </c>
+      <c r="J17" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="K17" s="64"/>
       <c r="O17" s="2" t="str">
         <f>'Definición técnica de imagenes'!A27</f>
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG09</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E18" s="63" t="s">
         <v>153</v>
       </c>
       <c r="F18" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG09_small</v>
+        <v>MA_09_06_REC20_IMG09_small</v>
       </c>
       <c r="G18" s="13" t="str">
         <f ca="1">IF($F18&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4137,42 +4319,42 @@
       </c>
       <c r="H18" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG09_zoom</v>
+        <v>MA_09_06_REC20_IMG09_zoom</v>
       </c>
       <c r="I18" s="13" t="str">
         <f ca="1">IF(OR($B18&lt;&gt;"",$J18&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66" t="s">
-        <v>202</v>
+      <c r="J18" s="63"/>
+      <c r="K18" s="64" t="s">
+        <v>193</v>
       </c>
       <c r="O18" s="2" t="str">
         <f>'Definición técnica de imagenes'!A30</f>
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v>IMG10</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E19" s="63" t="s">
         <v>153</v>
       </c>
       <c r="F19" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG10_small</v>
+        <v>MA_09_06_REC20_IMG10_small</v>
       </c>
       <c r="G19" s="13" t="str">
         <f ca="1">IF($F19&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4180,42 +4362,42 @@
       </c>
       <c r="H19" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG10_zoom</v>
+        <v>MA_09_06_REC20_IMG10_zoom</v>
       </c>
       <c r="I19" s="13" t="str">
         <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68" t="s">
-        <v>203</v>
+      <c r="J19" s="63"/>
+      <c r="K19" s="103" t="s">
+        <v>201</v>
       </c>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG11</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C20" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E20" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F20" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG11_small</v>
+        <v>MA_09_06_REC20_IMG11_small</v>
       </c>
       <c r="G20" s="13" t="str">
         <f ca="1">IF($F20&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4223,42 +4405,42 @@
       </c>
       <c r="H20" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG11_zoom</v>
+        <v>MA_09_06_REC20_IMG11_zoom</v>
       </c>
       <c r="I20" s="13" t="str">
         <f ca="1">IF(OR($B20&lt;&gt;"",$J20&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J20"/>
-      <c r="K20" s="66" t="s">
-        <v>204</v>
+      <c r="K20" s="104" t="s">
+        <v>202</v>
       </c>
       <c r="O20" s="2" t="str">
         <f>'Definición técnica de imagenes'!A32</f>
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG12</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E21" s="63" t="s">
         <v>153</v>
       </c>
       <c r="F21" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG12_small</v>
+        <v>MA_09_06_REC20_IMG12_small</v>
       </c>
       <c r="G21" s="13" t="str">
         <f ca="1">IF($F21&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4266,42 +4448,42 @@
       </c>
       <c r="H21" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG12_zoom</v>
+        <v>MA_09_06_REC20_IMG12_zoom</v>
       </c>
       <c r="I21" s="13" t="str">
         <f ca="1">IF(OR($B21&lt;&gt;"",$J21&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66" t="s">
-        <v>205</v>
+      <c r="J21" s="63"/>
+      <c r="K21" s="64" t="s">
+        <v>203</v>
       </c>
       <c r="O21" s="2" t="str">
         <f>'Definición técnica de imagenes'!A33</f>
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG13</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C22" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E22" s="63" t="s">
         <v>153</v>
       </c>
       <c r="F22" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG13_small</v>
+        <v>MA_09_06_REC20_IMG13_small</v>
       </c>
       <c r="G22" s="13" t="str">
         <f ca="1">IF($F22&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4309,42 +4491,42 @@
       </c>
       <c r="H22" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG13_zoom</v>
+        <v>MA_09_06_REC20_IMG13_zoom</v>
       </c>
       <c r="I22" s="13" t="str">
         <f ca="1">IF(OR($B22&lt;&gt;"",$J22&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J22"/>
-      <c r="K22" s="69" t="s">
-        <v>206</v>
-      </c>
+      <c r="J22" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="K22" s="64"/>
       <c r="O22" s="2" t="str">
         <f>'Definición técnica de imagenes'!A34</f>
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG14</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C23" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D23" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E23" s="63" t="s">
         <v>153</v>
       </c>
       <c r="F23" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG14_small</v>
+        <v>MA_09_06_REC20_IMG14_small</v>
       </c>
       <c r="G23" s="13" t="str">
         <f ca="1">IF($F23&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4352,42 +4534,42 @@
       </c>
       <c r="H23" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG14_zoom</v>
+        <v>MA_09_06_REC20_IMG14_zoom</v>
       </c>
       <c r="I23" s="13" t="str">
         <f ca="1">IF(OR($B23&lt;&gt;"",$J23&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J23"/>
-      <c r="K23" s="64" t="s">
-        <v>207</v>
-      </c>
+      <c r="J23" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="K23" s="64"/>
       <c r="O23" s="2" t="str">
         <f>'Definición técnica de imagenes'!A35</f>
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG15</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C24" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E24" s="63" t="s">
         <v>153</v>
       </c>
       <c r="F24" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG15_small</v>
+        <v>MA_09_06_REC20_IMG15_small</v>
       </c>
       <c r="G24" s="13" t="str">
         <f ca="1">IF($F24&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4395,42 +4577,42 @@
       </c>
       <c r="H24" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG15_zoom</v>
+        <v>MA_09_06_REC20_IMG15_zoom</v>
       </c>
       <c r="I24" s="13" t="str">
         <f ca="1">IF(OR($B24&lt;&gt;"",$J24&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J24"/>
-      <c r="K24" s="65" t="s">
-        <v>208</v>
-      </c>
+      <c r="J24" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" s="64"/>
       <c r="O24" s="2" t="str">
         <f>'Definición técnica de imagenes'!A37</f>
         <v>F13B</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG16</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C25" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D25" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E25" s="63" t="s">
         <v>153</v>
       </c>
       <c r="F25" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG16_small</v>
+        <v>MA_09_06_REC20_IMG16_small</v>
       </c>
       <c r="G25" s="13" t="str">
         <f ca="1">IF($F25&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4438,7 +4620,7 @@
       </c>
       <c r="H25" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG16_zoom</v>
+        <v>MA_09_06_REC20_IMG16_zoom</v>
       </c>
       <c r="I25" s="13" t="str">
         <f ca="1">IF(OR($B25&lt;&gt;"",$J25&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -4446,30 +4628,30 @@
       </c>
       <c r="J25" s="63"/>
       <c r="K25" s="64" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="11" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG17</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C26" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D26" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E26" s="63" t="s">
         <v>153</v>
       </c>
       <c r="F26" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG17_small</v>
+        <v>MA_09_06_REC20_IMG17_small</v>
       </c>
       <c r="G26" s="13" t="str">
         <f ca="1">IF($F26&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4477,7 +4659,7 @@
       </c>
       <c r="H26" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG17_zoom</v>
+        <v>MA_09_06_REC20_IMG17_zoom</v>
       </c>
       <c r="I26" s="13" t="str">
         <f ca="1">IF(OR($B26&lt;&gt;"",$J26&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -4485,30 +4667,30 @@
       </c>
       <c r="J26" s="63"/>
       <c r="K26" s="64" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="11" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG18</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C27" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E27" s="63" t="s">
         <v>153</v>
       </c>
       <c r="F27" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG18_small</v>
+        <v>MA_09_06_REC20_IMG18_small</v>
       </c>
       <c r="G27" s="13" t="str">
         <f ca="1">IF($F27&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4516,15 +4698,15 @@
       </c>
       <c r="H27" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG18_zoom</v>
+        <v>MA_09_06_REC20_IMG18_zoom</v>
       </c>
       <c r="I27" s="13" t="str">
         <f ca="1">IF(OR($B27&lt;&gt;"",$J27&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J27" s="64"/>
+      <c r="J27" s="63"/>
       <c r="K27" s="64" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O27" s="2"/>
     </row>
@@ -4533,8 +4715,8 @@
         <f t="shared" si="6"/>
         <v>IMG19</v>
       </c>
-      <c r="B28" s="62">
-        <v>111565067</v>
+      <c r="B28" s="62" t="s">
+        <v>191</v>
       </c>
       <c r="C28" s="20" t="str">
         <f t="shared" si="0"/>
@@ -4544,11 +4726,11 @@
         <v>192</v>
       </c>
       <c r="E28" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F28" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG19_small</v>
+        <v>MA_09_06_REC20_IMG19_small</v>
       </c>
       <c r="G28" s="13" t="str">
         <f ca="1">IF($F28&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4556,38 +4738,40 @@
       </c>
       <c r="H28" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG19_zoom</v>
+        <v>MA_09_06_REC20_IMG19_zoom</v>
       </c>
       <c r="I28" s="13" t="str">
         <f ca="1">IF(OR($B28&lt;&gt;"",$J28&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J28" s="64"/>
+      <c r="J28" s="63" t="s">
+        <v>206</v>
+      </c>
       <c r="K28" s="64" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG20</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C29" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D29" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E29" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F29" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG20_small</v>
+        <v>MA_09_06_REC20_IMG20_small</v>
       </c>
       <c r="G29" s="13" t="str">
         <f ca="1">IF($F29&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4595,15 +4779,17 @@
       </c>
       <c r="H29" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG20_zoom</v>
+        <v>MA_09_06_REC20_IMG20_zoom</v>
       </c>
       <c r="I29" s="13" t="str">
         <f ca="1">IF(OR($B29&lt;&gt;"",$J29&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J29" s="64"/>
+      <c r="J29" s="63" t="s">
+        <v>208</v>
+      </c>
       <c r="K29" s="64" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4611,8 +4797,8 @@
         <f t="shared" si="6"/>
         <v>IMG21</v>
       </c>
-      <c r="B30" s="62">
-        <v>91078424</v>
+      <c r="B30" s="62" t="s">
+        <v>191</v>
       </c>
       <c r="C30" s="20" t="str">
         <f t="shared" si="0"/>
@@ -4622,11 +4808,11 @@
         <v>192</v>
       </c>
       <c r="E30" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F30" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG21_small</v>
+        <v>MA_09_06_REC20_IMG21_small</v>
       </c>
       <c r="G30" s="13" t="str">
         <f ca="1">IF($F30&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4634,77 +4820,79 @@
       </c>
       <c r="H30" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG21_zoom</v>
+        <v>MA_09_06_REC20_IMG21_zoom</v>
       </c>
       <c r="I30" s="13" t="str">
         <f ca="1">IF(OR($B30&lt;&gt;"",$J30&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J30" s="64"/>
+      <c r="J30" s="63" t="s">
+        <v>210</v>
+      </c>
       <c r="K30" s="64" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="11" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG22</v>
       </c>
-      <c r="B31" s="62" t="s">
-        <v>194</v>
+      <c r="B31" s="62">
+        <v>114785188</v>
       </c>
       <c r="C31" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D31" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E31" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F31" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG22_small</v>
+        <f t="shared" ref="F31" si="7">IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),CONCATENATE($C$7,"_",$A31,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I31="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>MA_09_06_REC20_IMG22_small</v>
       </c>
       <c r="G31" s="13" t="str">
         <f ca="1">IF($F31&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H31" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG22_zoom</v>
+        <f t="shared" ref="H31" ca="1" si="8">IF(AND(I31&lt;&gt;"",I31&lt;&gt;0),IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),CONCATENATE($C$7,"_",$A31,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>MA_09_06_REC20_IMG22_zoom</v>
       </c>
       <c r="I31" s="13" t="str">
         <f ca="1">IF(OR($B31&lt;&gt;"",$J31&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J31" s="64"/>
+      <c r="J31" s="63"/>
       <c r="K31" s="64" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="11" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG23</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C32" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D32" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E32" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F32" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG23_small</v>
+        <v>MA_09_06_REC20_IMG23_small</v>
       </c>
       <c r="G32" s="13" t="str">
         <f ca="1">IF($F32&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4712,36 +4900,38 @@
       </c>
       <c r="H32" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG23_zoom</v>
+        <v>MA_09_06_REC20_IMG23_zoom</v>
       </c>
       <c r="I32" s="13" t="str">
         <f ca="1">IF(OR($B32&lt;&gt;"",$J32&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-    </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="63"/>
+      <c r="K32" s="64" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="11" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG24</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C33" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D33" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E33" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F33" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_09_06_CO_IMG24_small</v>
+        <v>MA_09_06_REC20_IMG24_small</v>
       </c>
       <c r="G33" s="13" t="str">
         <f ca="1">IF($F33&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -4749,298 +4939,374 @@
       </c>
       <c r="H33" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_09_06_CO_IMG24_zoom</v>
+        <v>MA_09_06_REC20_IMG24_zoom</v>
       </c>
       <c r="I33" s="13" t="str">
         <f ca="1">IF(OR($B33&lt;&gt;"",$J33&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J33"/>
+      <c r="J33" s="63"/>
       <c r="K33" s="64" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="11" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B34" s="62"/>
+        <v>IMG25</v>
+      </c>
+      <c r="B34" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C34" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F34" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>MA_09_06_REC20_IMG25_small</v>
       </c>
       <c r="G34" s="13" t="str">
         <f ca="1">IF($F34&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H34" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>MA_09_06_REC20_IMG25_zoom</v>
       </c>
       <c r="I34" s="13" t="str">
         <f ca="1">IF(OR($B34&lt;&gt;"",$J34&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J34" s="63"/>
+      <c r="K34" s="64" t="s">
+        <v>197</v>
+      </c>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="11" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B35" s="62"/>
+        <f>IF(OR(B31&lt;&gt;"",J35&lt;&gt;""),CONCATENATE(LEFT(A34,3),IF(MID(A34,4,2)+1&lt;10,CONCATENATE("0",MID(A34,4,2)+1),MID(A34,4,2)+1)),"")</f>
+        <v>IMG26</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C35" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
+        <f>IF(OR(B31&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D35" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F35" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f>IF(OR(B31&lt;&gt;"",J35&lt;&gt;""),CONCATENATE($C$7,"_",$A35,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I35="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>MA_09_06_REC20_IMG26_small</v>
       </c>
       <c r="G35" s="13" t="str">
         <f ca="1">IF($F35&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H35" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+        <f ca="1">IF(AND(I35&lt;&gt;"",I35&lt;&gt;0),IF(OR(B31&lt;&gt;"",J35&lt;&gt;""),CONCATENATE($C$7,"_",$A35,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>MA_09_06_REC20_IMG26_zoom</v>
       </c>
       <c r="I35" s="13" t="str">
-        <f ca="1">IF(OR($B35&lt;&gt;"",$J35&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <f ca="1">IF(OR($B31&lt;&gt;"",$J35&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
+        <v>800 x 600 px</v>
       </c>
       <c r="J35" s="63"/>
-      <c r="K35" s="65"/>
+      <c r="K35" s="64" t="s">
+        <v>214</v>
+      </c>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B36" s="62"/>
+        <v>IMG27</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C36" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D36" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F36" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>MA_09_06_REC20_IMG27_small</v>
       </c>
       <c r="G36" s="13" t="str">
         <f ca="1">IF($F36&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H36" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>MA_09_06_REC20_IMG27_zoom</v>
       </c>
       <c r="I36" s="13" t="str">
         <f ca="1">IF(OR($B36&lt;&gt;"",$J36&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J36" s="63"/>
-      <c r="K36" s="65"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J36" s="103" t="s">
+        <v>215</v>
+      </c>
+      <c r="K36" s="64" t="s">
+        <v>216</v>
+      </c>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="11" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B37" s="62"/>
+        <v>IMG28</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C37" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D37" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F37" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>MA_09_06_REC20_IMG28_small</v>
       </c>
       <c r="G37" s="13" t="str">
         <f ca="1">IF($F37&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H37" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>MA_09_06_REC20_IMG28_zoom</v>
       </c>
       <c r="I37" s="13" t="str">
         <f ca="1">IF(OR($B37&lt;&gt;"",$J37&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J37" s="70"/>
-      <c r="K37" s="65"/>
-    </row>
-    <row r="38" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J37" s="63"/>
+      <c r="K37" s="64" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="11" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B38" s="62"/>
+        <v>IMG29</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C38" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D38" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F38" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>MA_09_06_REC20_IMG29_small</v>
       </c>
       <c r="G38" s="13" t="str">
         <f ca="1">IF($F38&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H38" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>MA_09_06_REC20_IMG29_zoom</v>
       </c>
       <c r="I38" s="13" t="str">
         <f ca="1">IF(OR($B38&lt;&gt;"",$J38&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J38" s="71"/>
-      <c r="K38" s="65"/>
-    </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J38" s="63"/>
+      <c r="K38" s="64" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="11" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B39" s="62"/>
+        <v>IMG30</v>
+      </c>
+      <c r="B39" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C39" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D39" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F39" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>MA_09_06_REC20_IMG30_small</v>
       </c>
       <c r="G39" s="13" t="str">
         <f ca="1">IF($F39&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H39" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>MA_09_06_REC20_IMG30_zoom</v>
       </c>
       <c r="I39" s="13" t="str">
         <f ca="1">IF(OR($B39&lt;&gt;"",$J39&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J39" s="63"/>
-      <c r="K39" s="65"/>
-    </row>
-    <row r="40" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="64" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="11" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B40" s="62"/>
+        <v>IMG31</v>
+      </c>
+      <c r="B40" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C40" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D40" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F40" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>MA_09_06_REC20_IMG31_small</v>
       </c>
       <c r="G40" s="13" t="str">
         <f ca="1">IF($F40&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H40" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>MA_09_06_REC20_IMG31_zoom</v>
       </c>
       <c r="I40" s="13" t="str">
         <f ca="1">IF(OR($B40&lt;&gt;"",$J40&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J40" s="63"/>
-      <c r="K40" s="65"/>
-    </row>
-    <row r="41" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B41" s="62"/>
+        <v>IMG32</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C41" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D41" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F41" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>MA_09_06_REC20_IMG32_small</v>
       </c>
       <c r="G41" s="13" t="str">
         <f ca="1">IF($F41&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H41" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>MA_09_06_REC20_IMG32_zoom</v>
       </c>
       <c r="I41" s="13" t="str">
         <f ca="1">IF(OR($B41&lt;&gt;"",$J41&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J41" s="63"/>
-      <c r="K41" s="65"/>
-    </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J41" s="105" t="s">
+        <v>221</v>
+      </c>
+      <c r="K41" s="64" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" s="11" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B42" s="62"/>
+        <v>IMG33</v>
+      </c>
+      <c r="B42" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="C42" s="20" t="str">
-        <f t="shared" ref="C42:C73" si="7">IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v/>
-      </c>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
+        <f t="shared" ref="C42:C73" si="9">IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D42" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F42" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>MA_09_06_REC20_IMG33_small</v>
       </c>
       <c r="G42" s="13" t="str">
         <f ca="1">IF($F42&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H42" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>MA_09_06_REC20_IMG33_zoom</v>
       </c>
       <c r="I42" s="13" t="str">
         <f ca="1">IF(OR($B42&lt;&gt;"",$J42&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J42" s="63"/>
-      <c r="K42" s="65"/>
+      <c r="K42" s="64" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="43" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="str">
@@ -5049,7 +5315,7 @@
       </c>
       <c r="B43" s="62"/>
       <c r="C43" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D43" s="63"/>
@@ -5071,7 +5337,7 @@
         <v/>
       </c>
       <c r="J43" s="63"/>
-      <c r="K43" s="65"/>
+      <c r="K43" s="64"/>
     </row>
     <row r="44" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="str">
@@ -5080,7 +5346,7 @@
       </c>
       <c r="B44" s="62"/>
       <c r="C44" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D44" s="63"/>
@@ -5102,7 +5368,7 @@
         <v/>
       </c>
       <c r="J44" s="63"/>
-      <c r="K44" s="65"/>
+      <c r="K44" s="64"/>
     </row>
     <row r="45" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="str">
@@ -5111,7 +5377,7 @@
       </c>
       <c r="B45" s="62"/>
       <c r="C45" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D45" s="63"/>
@@ -5133,7 +5399,7 @@
         <v/>
       </c>
       <c r="J45" s="63"/>
-      <c r="K45" s="65"/>
+      <c r="K45" s="64"/>
     </row>
     <row r="46" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="str">
@@ -5142,7 +5408,7 @@
       </c>
       <c r="B46" s="62"/>
       <c r="C46" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D46" s="63"/>
@@ -5164,7 +5430,7 @@
         <v/>
       </c>
       <c r="J46" s="63"/>
-      <c r="K46" s="65"/>
+      <c r="K46" s="64"/>
     </row>
     <row r="47" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="str">
@@ -5173,7 +5439,7 @@
       </c>
       <c r="B47" s="62"/>
       <c r="C47" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D47" s="63"/>
@@ -5195,7 +5461,7 @@
         <v/>
       </c>
       <c r="J47" s="63"/>
-      <c r="K47" s="65"/>
+      <c r="K47" s="64"/>
     </row>
     <row r="48" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="str">
@@ -5204,7 +5470,7 @@
       </c>
       <c r="B48" s="62"/>
       <c r="C48" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D48" s="63"/>
@@ -5226,7 +5492,7 @@
         <v/>
       </c>
       <c r="J48" s="63"/>
-      <c r="K48" s="65"/>
+      <c r="K48" s="64"/>
     </row>
     <row r="49" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="str">
@@ -5235,7 +5501,7 @@
       </c>
       <c r="B49" s="62"/>
       <c r="C49" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D49" s="63"/>
@@ -5257,7 +5523,7 @@
         <v/>
       </c>
       <c r="J49" s="63"/>
-      <c r="K49" s="65"/>
+      <c r="K49" s="64"/>
     </row>
     <row r="50" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="str">
@@ -5266,7 +5532,7 @@
       </c>
       <c r="B50" s="62"/>
       <c r="C50" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D50" s="63"/>
@@ -5288,16 +5554,16 @@
         <v/>
       </c>
       <c r="J50" s="63"/>
-      <c r="K50" s="65"/>
+      <c r="K50" s="64"/>
     </row>
     <row r="51" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="str">
-        <f t="shared" ref="A51:A82" si="8">IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(LEFT(A50,3),IF(MID(A50,4,2)+1&lt;10,CONCATENATE("0",MID(A50,4,2)+1),MID(A50,4,2)+1)),"")</f>
+        <f t="shared" ref="A51:A82" si="10">IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(LEFT(A50,3),IF(MID(A50,4,2)+1&lt;10,CONCATENATE("0",MID(A50,4,2)+1),MID(A50,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B51" s="62"/>
       <c r="C51" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D51" s="63"/>
@@ -5319,16 +5585,16 @@
         <v/>
       </c>
       <c r="J51" s="63"/>
-      <c r="K51" s="65"/>
+      <c r="K51" s="64"/>
     </row>
     <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B52" s="62"/>
       <c r="C52" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D52" s="63"/>
@@ -5350,16 +5616,16 @@
         <v/>
       </c>
       <c r="J52" s="63"/>
-      <c r="K52" s="65"/>
+      <c r="K52" s="64"/>
     </row>
     <row r="53" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B53" s="62"/>
       <c r="C53" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D53" s="63"/>
@@ -5381,16 +5647,16 @@
         <v/>
       </c>
       <c r="J53" s="63"/>
-      <c r="K53" s="65"/>
+      <c r="K53" s="64"/>
     </row>
     <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B54" s="62"/>
       <c r="C54" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D54" s="63"/>
@@ -5412,16 +5678,16 @@
         <v/>
       </c>
       <c r="J54" s="63"/>
-      <c r="K54" s="65"/>
+      <c r="K54" s="64"/>
     </row>
     <row r="55" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B55" s="62"/>
       <c r="C55" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D55" s="63"/>
@@ -5443,16 +5709,16 @@
         <v/>
       </c>
       <c r="J55" s="63"/>
-      <c r="K55" s="65"/>
+      <c r="K55" s="64"/>
     </row>
     <row r="56" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B56" s="62"/>
       <c r="C56" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D56" s="63"/>
@@ -5474,16 +5740,16 @@
         <v/>
       </c>
       <c r="J56" s="63"/>
-      <c r="K56" s="65"/>
+      <c r="K56" s="64"/>
     </row>
     <row r="57" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B57" s="62"/>
       <c r="C57" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D57" s="63"/>
@@ -5505,16 +5771,16 @@
         <v/>
       </c>
       <c r="J57" s="63"/>
-      <c r="K57" s="65"/>
+      <c r="K57" s="64"/>
     </row>
     <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B58" s="62"/>
       <c r="C58" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D58" s="63"/>
@@ -5536,16 +5802,16 @@
         <v/>
       </c>
       <c r="J58" s="63"/>
-      <c r="K58" s="65"/>
+      <c r="K58" s="64"/>
     </row>
     <row r="59" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B59" s="62"/>
       <c r="C59" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D59" s="63"/>
@@ -5567,16 +5833,16 @@
         <v/>
       </c>
       <c r="J59" s="63"/>
-      <c r="K59" s="65"/>
+      <c r="K59" s="64"/>
     </row>
     <row r="60" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B60" s="62"/>
       <c r="C60" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D60" s="63"/>
@@ -5598,16 +5864,16 @@
         <v/>
       </c>
       <c r="J60" s="63"/>
-      <c r="K60" s="65"/>
+      <c r="K60" s="64"/>
     </row>
     <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B61" s="62"/>
       <c r="C61" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D61" s="63"/>
@@ -5629,16 +5895,16 @@
         <v/>
       </c>
       <c r="J61" s="63"/>
-      <c r="K61" s="65"/>
+      <c r="K61" s="64"/>
     </row>
     <row r="62" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B62" s="62"/>
       <c r="C62" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D62" s="63"/>
@@ -5660,16 +5926,16 @@
         <v/>
       </c>
       <c r="J62" s="63"/>
-      <c r="K62" s="65"/>
+      <c r="K62" s="64"/>
     </row>
     <row r="63" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B63" s="62"/>
       <c r="C63" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D63" s="63"/>
@@ -5691,16 +5957,16 @@
         <v/>
       </c>
       <c r="J63" s="63"/>
-      <c r="K63" s="65"/>
+      <c r="K63" s="64"/>
     </row>
     <row r="64" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B64" s="62"/>
       <c r="C64" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D64" s="63"/>
@@ -5722,16 +5988,16 @@
         <v/>
       </c>
       <c r="J64" s="63"/>
-      <c r="K64" s="65"/>
+      <c r="K64" s="64"/>
     </row>
     <row r="65" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B65" s="62"/>
       <c r="C65" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D65" s="63"/>
@@ -5753,16 +6019,16 @@
         <v/>
       </c>
       <c r="J65" s="63"/>
-      <c r="K65" s="65"/>
+      <c r="K65" s="64"/>
     </row>
     <row r="66" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B66" s="62"/>
       <c r="C66" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D66" s="63"/>
@@ -5784,16 +6050,16 @@
         <v/>
       </c>
       <c r="J66" s="63"/>
-      <c r="K66" s="65"/>
+      <c r="K66" s="64"/>
     </row>
     <row r="67" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B67" s="62"/>
       <c r="C67" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D67" s="63"/>
@@ -5815,16 +6081,16 @@
         <v/>
       </c>
       <c r="J67" s="63"/>
-      <c r="K67" s="65"/>
+      <c r="K67" s="64"/>
     </row>
     <row r="68" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B68" s="62"/>
       <c r="C68" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D68" s="63"/>
@@ -5846,16 +6112,16 @@
         <v/>
       </c>
       <c r="J68" s="63"/>
-      <c r="K68" s="65"/>
+      <c r="K68" s="64"/>
     </row>
     <row r="69" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B69" s="62"/>
       <c r="C69" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D69" s="63"/>
@@ -5877,16 +6143,16 @@
         <v/>
       </c>
       <c r="J69" s="63"/>
-      <c r="K69" s="65"/>
+      <c r="K69" s="64"/>
     </row>
     <row r="70" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B70" s="62"/>
       <c r="C70" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D70" s="63"/>
@@ -5908,16 +6174,16 @@
         <v/>
       </c>
       <c r="J70" s="63"/>
-      <c r="K70" s="65"/>
+      <c r="K70" s="64"/>
     </row>
     <row r="71" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B71" s="62"/>
       <c r="C71" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D71" s="63"/>
@@ -5939,16 +6205,16 @@
         <v/>
       </c>
       <c r="J71" s="63"/>
-      <c r="K71" s="65"/>
+      <c r="K71" s="64"/>
     </row>
     <row r="72" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B72" s="62"/>
       <c r="C72" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D72" s="63"/>
@@ -5970,16 +6236,16 @@
         <v/>
       </c>
       <c r="J72" s="63"/>
-      <c r="K72" s="65"/>
+      <c r="K72" s="64"/>
     </row>
     <row r="73" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B73" s="62"/>
       <c r="C73" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D73" s="63"/>
@@ -6001,16 +6267,16 @@
         <v/>
       </c>
       <c r="J73" s="63"/>
-      <c r="K73" s="65"/>
+      <c r="K73" s="64"/>
     </row>
     <row r="74" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B74" s="62"/>
       <c r="C74" s="20" t="str">
-        <f t="shared" ref="C74:C105" si="9">IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" ref="C74:C105" si="11">IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
       <c r="D74" s="63"/>
@@ -6032,22 +6298,22 @@
         <v/>
       </c>
       <c r="J74" s="63"/>
-      <c r="K74" s="65"/>
+      <c r="K74" s="64"/>
     </row>
     <row r="75" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B75" s="62"/>
       <c r="C75" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D75" s="63"/>
       <c r="E75" s="63"/>
       <c r="F75" s="13" t="str">
-        <f t="shared" ref="F75:F108" si="10">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F75:F108" si="12">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G75" s="13" t="str">
@@ -6055,7 +6321,7 @@
         <v/>
       </c>
       <c r="H75" s="13" t="str">
-        <f t="shared" ref="H75:H108" ca="1" si="11">IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H75:H108" ca="1" si="13">IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I75" s="13" t="str">
@@ -6063,22 +6329,22 @@
         <v/>
       </c>
       <c r="J75" s="63"/>
-      <c r="K75" s="65"/>
+      <c r="K75" s="64"/>
     </row>
     <row r="76" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B76" s="62"/>
       <c r="C76" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D76" s="63"/>
       <c r="E76" s="63"/>
       <c r="F76" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G76" s="13" t="str">
@@ -6086,7 +6352,7 @@
         <v/>
       </c>
       <c r="H76" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I76" s="13" t="str">
@@ -6094,22 +6360,22 @@
         <v/>
       </c>
       <c r="J76" s="63"/>
-      <c r="K76" s="65"/>
+      <c r="K76" s="64"/>
     </row>
     <row r="77" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B77" s="62"/>
       <c r="C77" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D77" s="63"/>
       <c r="E77" s="63"/>
       <c r="F77" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G77" s="13" t="str">
@@ -6117,7 +6383,7 @@
         <v/>
       </c>
       <c r="H77" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I77" s="13" t="str">
@@ -6125,22 +6391,22 @@
         <v/>
       </c>
       <c r="J77" s="63"/>
-      <c r="K77" s="65"/>
+      <c r="K77" s="64"/>
     </row>
     <row r="78" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B78" s="62"/>
       <c r="C78" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D78" s="63"/>
       <c r="E78" s="63"/>
       <c r="F78" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G78" s="13" t="str">
@@ -6148,7 +6414,7 @@
         <v/>
       </c>
       <c r="H78" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I78" s="13" t="str">
@@ -6156,22 +6422,22 @@
         <v/>
       </c>
       <c r="J78" s="63"/>
-      <c r="K78" s="65"/>
+      <c r="K78" s="64"/>
     </row>
     <row r="79" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B79" s="62"/>
       <c r="C79" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D79" s="63"/>
       <c r="E79" s="63"/>
       <c r="F79" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G79" s="13" t="str">
@@ -6179,7 +6445,7 @@
         <v/>
       </c>
       <c r="H79" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I79" s="13" t="str">
@@ -6187,22 +6453,22 @@
         <v/>
       </c>
       <c r="J79" s="63"/>
-      <c r="K79" s="65"/>
+      <c r="K79" s="64"/>
     </row>
     <row r="80" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B80" s="62"/>
       <c r="C80" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D80" s="63"/>
       <c r="E80" s="63"/>
       <c r="F80" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G80" s="13" t="str">
@@ -6210,7 +6476,7 @@
         <v/>
       </c>
       <c r="H80" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I80" s="13" t="str">
@@ -6218,22 +6484,22 @@
         <v/>
       </c>
       <c r="J80" s="63"/>
-      <c r="K80" s="65"/>
+      <c r="K80" s="64"/>
     </row>
     <row r="81" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B81" s="62"/>
       <c r="C81" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
       <c r="F81" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G81" s="13" t="str">
@@ -6241,7 +6507,7 @@
         <v/>
       </c>
       <c r="H81" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I81" s="13" t="str">
@@ -6249,22 +6515,22 @@
         <v/>
       </c>
       <c r="J81" s="63"/>
-      <c r="K81" s="65"/>
+      <c r="K81" s="64"/>
     </row>
     <row r="82" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="B82" s="62"/>
       <c r="C82" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D82" s="63"/>
       <c r="E82" s="63"/>
       <c r="F82" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G82" s="13" t="str">
@@ -6272,7 +6538,7 @@
         <v/>
       </c>
       <c r="H82" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I82" s="13" t="str">
@@ -6280,22 +6546,22 @@
         <v/>
       </c>
       <c r="J82" s="63"/>
-      <c r="K82" s="65"/>
+      <c r="K82" s="64"/>
     </row>
     <row r="83" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="str">
-        <f t="shared" ref="A83:A108" si="12">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE(LEFT(A82,3),IF(MID(A82,4,2)+1&lt;10,CONCATENATE("0",MID(A82,4,2)+1),MID(A82,4,2)+1)),"")</f>
+        <f t="shared" ref="A83:A108" si="14">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE(LEFT(A82,3),IF(MID(A82,4,2)+1&lt;10,CONCATENATE("0",MID(A82,4,2)+1),MID(A82,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B83" s="62"/>
       <c r="C83" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D83" s="63"/>
       <c r="E83" s="63"/>
       <c r="F83" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G83" s="13" t="str">
@@ -6303,7 +6569,7 @@
         <v/>
       </c>
       <c r="H83" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I83" s="13" t="str">
@@ -6311,22 +6577,22 @@
         <v/>
       </c>
       <c r="J83" s="63"/>
-      <c r="K83" s="65"/>
+      <c r="K83" s="64"/>
     </row>
     <row r="84" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B84" s="62"/>
       <c r="C84" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D84" s="63"/>
       <c r="E84" s="63"/>
       <c r="F84" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G84" s="13" t="str">
@@ -6334,7 +6600,7 @@
         <v/>
       </c>
       <c r="H84" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I84" s="13" t="str">
@@ -6342,22 +6608,22 @@
         <v/>
       </c>
       <c r="J84" s="63"/>
-      <c r="K84" s="65"/>
+      <c r="K84" s="64"/>
     </row>
     <row r="85" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B85" s="62"/>
       <c r="C85" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D85" s="63"/>
       <c r="E85" s="63"/>
       <c r="F85" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G85" s="13" t="str">
@@ -6365,7 +6631,7 @@
         <v/>
       </c>
       <c r="H85" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I85" s="13" t="str">
@@ -6373,22 +6639,22 @@
         <v/>
       </c>
       <c r="J85" s="63"/>
-      <c r="K85" s="65"/>
+      <c r="K85" s="64"/>
     </row>
     <row r="86" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B86" s="62"/>
       <c r="C86" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D86" s="63"/>
       <c r="E86" s="63"/>
       <c r="F86" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G86" s="13" t="str">
@@ -6396,7 +6662,7 @@
         <v/>
       </c>
       <c r="H86" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I86" s="13" t="str">
@@ -6404,22 +6670,22 @@
         <v/>
       </c>
       <c r="J86" s="63"/>
-      <c r="K86" s="65"/>
+      <c r="K86" s="64"/>
     </row>
     <row r="87" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B87" s="62"/>
       <c r="C87" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D87" s="63"/>
       <c r="E87" s="63"/>
       <c r="F87" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G87" s="13" t="str">
@@ -6427,7 +6693,7 @@
         <v/>
       </c>
       <c r="H87" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I87" s="13" t="str">
@@ -6435,22 +6701,22 @@
         <v/>
       </c>
       <c r="J87" s="63"/>
-      <c r="K87" s="65"/>
+      <c r="K87" s="64"/>
     </row>
     <row r="88" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B88" s="62"/>
       <c r="C88" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D88" s="63"/>
       <c r="E88" s="63"/>
       <c r="F88" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G88" s="13" t="str">
@@ -6458,7 +6724,7 @@
         <v/>
       </c>
       <c r="H88" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I88" s="13" t="str">
@@ -6466,22 +6732,22 @@
         <v/>
       </c>
       <c r="J88" s="63"/>
-      <c r="K88" s="65"/>
+      <c r="K88" s="64"/>
     </row>
     <row r="89" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B89" s="62"/>
       <c r="C89" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D89" s="63"/>
       <c r="E89" s="63"/>
       <c r="F89" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G89" s="13" t="str">
@@ -6489,7 +6755,7 @@
         <v/>
       </c>
       <c r="H89" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I89" s="13" t="str">
@@ -6501,18 +6767,18 @@
     </row>
     <row r="90" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B90" s="62"/>
       <c r="C90" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D90" s="63"/>
       <c r="E90" s="63"/>
       <c r="F90" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G90" s="13" t="str">
@@ -6520,7 +6786,7 @@
         <v/>
       </c>
       <c r="H90" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I90" s="13" t="str">
@@ -6532,18 +6798,18 @@
     </row>
     <row r="91" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B91" s="62"/>
       <c r="C91" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D91" s="63"/>
       <c r="E91" s="63"/>
       <c r="F91" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G91" s="13" t="str">
@@ -6551,7 +6817,7 @@
         <v/>
       </c>
       <c r="H91" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I91" s="13" t="str">
@@ -6563,18 +6829,18 @@
     </row>
     <row r="92" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B92" s="62"/>
       <c r="C92" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D92" s="63"/>
       <c r="E92" s="63"/>
       <c r="F92" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G92" s="13" t="str">
@@ -6582,7 +6848,7 @@
         <v/>
       </c>
       <c r="H92" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I92" s="13" t="str">
@@ -6594,18 +6860,18 @@
     </row>
     <row r="93" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B93" s="62"/>
       <c r="C93" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D93" s="63"/>
       <c r="E93" s="63"/>
       <c r="F93" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G93" s="13" t="str">
@@ -6613,7 +6879,7 @@
         <v/>
       </c>
       <c r="H93" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I93" s="13" t="str">
@@ -6625,18 +6891,18 @@
     </row>
     <row r="94" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B94" s="62"/>
       <c r="C94" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D94" s="63"/>
       <c r="E94" s="63"/>
       <c r="F94" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G94" s="13" t="str">
@@ -6644,7 +6910,7 @@
         <v/>
       </c>
       <c r="H94" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I94" s="13" t="str">
@@ -6656,18 +6922,18 @@
     </row>
     <row r="95" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B95" s="62"/>
       <c r="C95" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D95" s="63"/>
       <c r="E95" s="63"/>
       <c r="F95" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G95" s="13" t="str">
@@ -6675,7 +6941,7 @@
         <v/>
       </c>
       <c r="H95" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I95" s="13" t="str">
@@ -6687,18 +6953,18 @@
     </row>
     <row r="96" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B96" s="62"/>
       <c r="C96" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D96" s="63"/>
       <c r="E96" s="63"/>
       <c r="F96" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G96" s="13" t="str">
@@ -6706,7 +6972,7 @@
         <v/>
       </c>
       <c r="H96" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I96" s="13" t="str">
@@ -6718,18 +6984,18 @@
     </row>
     <row r="97" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B97" s="62"/>
       <c r="C97" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D97" s="63"/>
       <c r="E97" s="63"/>
       <c r="F97" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G97" s="13" t="str">
@@ -6737,7 +7003,7 @@
         <v/>
       </c>
       <c r="H97" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I97" s="13" t="str">
@@ -6749,18 +7015,18 @@
     </row>
     <row r="98" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B98" s="62"/>
       <c r="C98" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D98" s="63"/>
       <c r="E98" s="63"/>
       <c r="F98" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G98" s="13" t="str">
@@ -6768,7 +7034,7 @@
         <v/>
       </c>
       <c r="H98" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I98" s="13" t="str">
@@ -6780,18 +7046,18 @@
     </row>
     <row r="99" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B99" s="62"/>
       <c r="C99" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D99" s="63"/>
       <c r="E99" s="63"/>
       <c r="F99" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G99" s="13" t="str">
@@ -6799,7 +7065,7 @@
         <v/>
       </c>
       <c r="H99" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I99" s="13" t="str">
@@ -6811,18 +7077,18 @@
     </row>
     <row r="100" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B100" s="62"/>
       <c r="C100" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D100" s="63"/>
       <c r="E100" s="63"/>
       <c r="F100" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G100" s="13" t="str">
@@ -6830,7 +7096,7 @@
         <v/>
       </c>
       <c r="H100" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I100" s="13" t="str">
@@ -6842,18 +7108,18 @@
     </row>
     <row r="101" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B101" s="62"/>
       <c r="C101" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D101" s="63"/>
       <c r="E101" s="63"/>
       <c r="F101" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G101" s="13" t="str">
@@ -6861,7 +7127,7 @@
         <v/>
       </c>
       <c r="H101" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I101" s="13" t="str">
@@ -6873,18 +7139,18 @@
     </row>
     <row r="102" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B102" s="62"/>
       <c r="C102" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D102" s="63"/>
       <c r="E102" s="63"/>
       <c r="F102" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G102" s="13" t="str">
@@ -6892,7 +7158,7 @@
         <v/>
       </c>
       <c r="H102" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I102" s="13" t="str">
@@ -6904,18 +7170,18 @@
     </row>
     <row r="103" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B103" s="62"/>
       <c r="C103" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D103" s="63"/>
       <c r="E103" s="63"/>
       <c r="F103" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G103" s="13" t="str">
@@ -6923,7 +7189,7 @@
         <v/>
       </c>
       <c r="H103" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I103" s="13" t="str">
@@ -6935,18 +7201,18 @@
     </row>
     <row r="104" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B104" s="62"/>
       <c r="C104" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D104" s="63"/>
       <c r="E104" s="63"/>
       <c r="F104" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G104" s="13" t="str">
@@ -6954,7 +7220,7 @@
         <v/>
       </c>
       <c r="H104" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I104" s="13" t="str">
@@ -6966,18 +7232,18 @@
     </row>
     <row r="105" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B105" s="62"/>
       <c r="C105" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="D105" s="63"/>
       <c r="E105" s="63"/>
       <c r="F105" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G105" s="13" t="str">
@@ -6985,7 +7251,7 @@
         <v/>
       </c>
       <c r="H105" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I105" s="13" t="str">
@@ -6997,7 +7263,7 @@
     </row>
     <row r="106" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B106" s="62"/>
@@ -7008,7 +7274,7 @@
       <c r="D106" s="63"/>
       <c r="E106" s="63"/>
       <c r="F106" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G106" s="13" t="str">
@@ -7016,7 +7282,7 @@
         <v/>
       </c>
       <c r="H106" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I106" s="13" t="str">
@@ -7028,7 +7294,7 @@
     </row>
     <row r="107" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B107" s="62"/>
@@ -7039,7 +7305,7 @@
       <c r="D107" s="63"/>
       <c r="E107" s="63"/>
       <c r="F107" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G107" s="13" t="str">
@@ -7047,7 +7313,7 @@
         <v/>
       </c>
       <c r="H107" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I107" s="13" t="str">
@@ -7059,7 +7325,7 @@
     </row>
     <row r="108" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="B108" s="62"/>
@@ -7070,7 +7336,7 @@
       <c r="D108" s="63"/>
       <c r="E108" s="63"/>
       <c r="F108" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G108" s="13" t="str">
@@ -7078,7 +7344,7 @@
         <v/>
       </c>
       <c r="H108" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="I108" s="13" t="str">
@@ -7089,7 +7355,7 @@
       <c r="K108" s="65"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="77H5Iqzv9dZcGmmBaf69JMJb19F7NL/TII5UwBSFOuUaqVrFbpC0VyStjTSM9GXqoLW1eBJcnDtnuP0mFWowpA==" saltValue="GBL6OckecvWR/Pgb/M/1sg==" spinCount="100000" sheet="1" scenarios="1" formatColumns="0" formatRows="0" selectLockedCells="1"/>
+  <sheetProtection formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
@@ -7135,127 +7401,27 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2055" r:id="rId4">
+        <oleObject progId="PBrush" shapeId="2050" r:id="rId4">
           <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
+                <xdr:colOff>457200</xdr:colOff>
                 <xdr:row>19</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>2266950</xdr:colOff>
+                <xdr:colOff>2114550</xdr:colOff>
                 <xdr:row>19</xdr:row>
-                <xdr:rowOff>1495425</xdr:rowOff>
+                <xdr:rowOff>1390650</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2055" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2058" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>781050</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1790700</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>1314450</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2058" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2059" r:id="rId8">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>304800</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>2076450</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>1104900</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2059" r:id="rId8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2060" r:id="rId10">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>2238375</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>1295400</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2060" r:id="rId10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2064" r:id="rId12">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>2038350</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>1047750</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2064" r:id="rId12"/>
+        <oleObject progId="PBrush" shapeId="2050" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -7283,25 +7449,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -7309,11 +7475,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -7364,11 +7530,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="105" t="str">
+      <c r="D5" s="99" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="106"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -7413,12 +7579,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="91" t="str">
+      <c r="D7" s="85" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -7512,14 +7678,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -7552,12 +7718,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -7597,12 +7763,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="99" t="str">
+      <c r="D17" s="93" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="95"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -7618,12 +7784,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="91" t="str">
+      <c r="D18" s="85" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -8014,40 +8180,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="102" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="107"/>
+      <c r="I1" s="101"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
@@ -8311,7 +8477,7 @@
       <c r="B12" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="67" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="42" t="s">
@@ -8385,29 +8551,29 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="77" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+    <row r="15" spans="1:10" s="71" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75" t="s">
+      <c r="B15" s="69"/>
+      <c r="C15" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="75" t="s">
+      <c r="E15" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76" t="s">
+      <c r="G15" s="69"/>
+      <c r="H15" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="75"/>
-      <c r="J15" s="77" t="s">
+      <c r="I15" s="69"/>
+      <c r="J15" s="71" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8562,7 +8728,7 @@
       <c r="H21" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="72"/>
+      <c r="I21" s="66"/>
       <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -8639,7 +8805,7 @@
         <v>176</v>
       </c>
       <c r="H24" s="44"/>
-      <c r="I24" s="72"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
